--- a/biology/Zoologie/Elachistidae/Elachistidae.xlsx
+++ b/biology/Zoologie/Elachistidae/Elachistidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Elachistidae sont une famille de petits lépidoptères (papillons) qui regroupe environ 830 espèces[2]. Leurs chenilles sont des larves mineuses de nombreuses plantes herbacées (Poaceae, Juncaceae et Cyperaceae principalement).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Elachistidae sont une famille de petits lépidoptères (papillons) qui regroupe environ 830 espèces. Leurs chenilles sont des larves mineuses de nombreuses plantes herbacées (Poaceae, Juncaceae et Cyperaceae principalement).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes ont un corps allongé, relativement gracile. Au repos, les ailes sont repliées en arrière, les antérieures recouvrent les postérieures et l'abdomen. Ils possèdent des antennes moyennes ou longues, sans renflements, non pectinées chez les mâles. Les palpes maxillaires sont réduits, les palpes labiaux peuvent être bien développés ou rudimentaires. Le proboscis est bien développé. Les ailes antérieures ne présentent pas d'ocelles au-dessus.
 La nervation des ailes antérieures comprend 10 à 12 nervures, celle des ailes postérieures est plus variable comprenant de 5 à 9 nervures. La nervation est dissimulée par les écailles.
@@ -543,9 +557,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La systématique des Gelechioidea a beaucoup évolué depuis les années 2000 grâce aux progrès de la phylogénie, ce qui explique que les différentes sources peuvent donner des informations très différentes concernant le contenu de la famille des Elachistidae. Les dernières études concluent qu'elle contient les trois sous-familles suivantes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique des Gelechioidea a beaucoup évolué depuis les années 2000 grâce aux progrès de la phylogénie, ce qui explique que les différentes sources peuvent donner des informations très différentes concernant le contenu de la famille des Elachistidae. Les dernières études concluent qu'elle contient les trois sous-familles suivantes :
 Elachistinae Bruand, 1850
 Agonoxeninae Meyrick, 1926
 Parametriotinae Capuse, 1971
@@ -578,7 +594,9 @@
           <t>Liste des genres présents en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elachista Treitschke 1833
 Perittia Stainton 1854
